--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369088.8538233297</v>
+        <v>376039.6593209954</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19997574.02179437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.078488211</v>
+        <v>4902568.07848821</v>
       </c>
     </row>
     <row r="11">
@@ -659,64 +659,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="V2" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="V2" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.11888750173132</v>
+      </c>
+      <c r="G3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C3" t="n">
+      <c r="H3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D3" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>39.58387696184059</v>
@@ -841,7 +841,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,11 +893,11 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>22.91618947337665</v>
+      </c>
+      <c r="C5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="7">
@@ -1142,52 +1142,52 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H8" t="n">
+      <c r="S8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I8" t="n">
+      <c r="T8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,58 +1221,58 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U9" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I10" t="n">
-        <v>9.977552361264268</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>39.58387696184059</v>
@@ -1430,10 +1430,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="W11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,46 +1540,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I13" t="n">
+      <c r="R13" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="H14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>24.87477961344436</v>
-      </c>
       <c r="Y14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>39.58387696184059</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86547882798917</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.13217237922859</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="F17" t="n">
         <v>44.13217237922859</v>
@@ -1859,7 +1859,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2008,49 +2008,49 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7904504476822691</v>
+      </c>
+      <c r="Q19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>155.1862886239755</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>56.27023347204743</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>12.13783202721522</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>78.19069652883213</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>108.2953254812187</v>
       </c>
     </row>
     <row r="28">
@@ -2731,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>77.92691371295918</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>27.66810444083383</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>232.8330857361503</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
@@ -3038,7 +3038,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3117,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="G33" t="n">
-        <v>60.31121712631163</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,22 +3351,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>93.31709626133957</v>
+        <v>64.2562736035707</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U37" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3597,13 +3597,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>88.72533787923319</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3639,10 +3639,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>208.2792470398066</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>198.2885478252619</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="E41" t="n">
-        <v>236.4659934602711</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>236.4659934602711</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>135.5402642186034</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.50451121869852</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>24.87477961344436</v>
+      </c>
+      <c r="C44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>24.87477961344436</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,58 +4065,58 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G45" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4144,64 +4144,64 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J46" t="n">
+      <c r="X46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="K46" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
         <v>3.166710156947247</v>
@@ -4337,13 +4337,13 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,28 +4352,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
@@ -4413,7 +4413,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
         <v>40.77139327069581</v>
@@ -4452,7 +4452,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4477,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4574,10 +4574,10 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O5" t="n">
         <v>158.3355078473624</v>
@@ -4604,13 +4604,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="W5" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X5" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E6" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G6" t="n">
         <v>3.166710156947247</v>
@@ -4647,19 +4647,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4668,19 +4668,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W6" t="n">
         <v>123.1178524655551</v>
@@ -4689,7 +4689,7 @@
         <v>83.13413836268582</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.13413836268582</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="7">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
         <v>3.166710156947247</v>
@@ -4884,49 +4884,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H10" t="n">
-        <v>53.22875997826529</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4987,25 +4987,25 @@
         <v>133.1961881840039</v>
       </c>
       <c r="S10" t="n">
-        <v>93.21247408113457</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.22875997826529</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="11">
@@ -5054,7 +5054,7 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
@@ -5066,19 +5066,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T11" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U11" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V11" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X11" t="n">
         <v>3.166710156947247</v>
@@ -5124,16 +5124,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P12" t="n">
         <v>158.3355078473624</v>
@@ -5154,13 +5154,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="W12" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="X12" t="n">
         <v>118.3517937444931</v>
-      </c>
-      <c r="W12" t="n">
-        <v>78.36807964162378</v>
-      </c>
-      <c r="X12" t="n">
-        <v>78.36807964162378</v>
       </c>
       <c r="Y12" t="n">
         <v>78.36807964162378</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G13" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H13" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I13" t="n">
         <v>3.166710156947247</v>
@@ -5215,34 +5215,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="D14" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="E14" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="F14" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="G14" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="H14" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="C14" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="D14" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5285,10 +5285,10 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
         <v>119.1474696551402</v>
@@ -5297,31 +5297,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>83.13413836268582</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.15042425981653</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="15">
@@ -5334,10 +5334,10 @@
         <v>118.3517937444931</v>
       </c>
       <c r="C15" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D15" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E15" t="n">
         <v>78.36807964162378</v>
@@ -5352,28 +5352,28 @@
         <v>38.38436553875449</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M15" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O15" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
@@ -5391,13 +5391,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
         <v>118.3517937444931</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C16" t="n">
         <v>3.166710156947247</v>
@@ -5452,34 +5452,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>93.21247408113457</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>93.21247408113457</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="T16" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="U16" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V16" t="n">
-        <v>93.21247408113457</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W16" t="n">
-        <v>53.22875997826529</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X16" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D17" t="n">
+        <v>166.4370741486873</v>
+      </c>
+      <c r="E17" t="n">
         <v>137.2644294849704</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>92.68647758675968</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>48.10852568854899</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
         <v>3.530573790338288</v>
@@ -5516,49 +5516,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5601,7 +5601,7 @@
         <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
         <v>132.8378388614781</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T18" t="n">
         <v>131.9507376187037</v>
       </c>
       <c r="U18" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
         <v>3.530573790338288</v>
@@ -5689,34 +5689,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>93.48491238239833</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.789102655903</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W21" t="n">
-        <v>345.004439675971</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X21" t="n">
-        <v>345.004439675971</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y21" t="n">
-        <v>345.004439675971</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="22">
@@ -5929,19 +5929,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>660.701031422288</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="C24" t="n">
-        <v>486.248002141161</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="D24" t="n">
-        <v>337.3135924799097</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="E24" t="n">
-        <v>178.0761374744542</v>
+        <v>76.87389543173322</v>
       </c>
       <c r="F24" t="n">
-        <v>31.54157950133921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>31.54157950133921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>31.54157950133921</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6108,10 +6108,10 @@
         <v>660.701031422288</v>
       </c>
       <c r="X24" t="n">
-        <v>660.701031422288</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y24" t="n">
-        <v>660.701031422288</v>
+        <v>245.0892324518013</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6169,28 +6169,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D26" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>408.3031853286819</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>408.3031853286819</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>408.3031853286819</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>408.3031853286819</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>408.3031853286819</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>408.3031853286819</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>408.3031853286819</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0777814360265</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.0645035650224</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V29" t="n">
-        <v>509.4769954460863</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W29" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>492.48569440222</v>
       </c>
       <c r="D30" t="n">
-        <v>257.2326523711826</v>
+        <v>492.48569440222</v>
       </c>
       <c r="E30" t="n">
-        <v>97.99519736572705</v>
+        <v>333.2482393967645</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>186.7136814236494</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>47.98285600626494</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.6244618379714</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>284.6244618379714</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>284.6244618379714</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>284.6244618379714</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>284.6244618379714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>492.3847606029253</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.6244618379714</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>527.9820370414925</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C36" t="n">
-        <v>353.5290077603655</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D36" t="n">
-        <v>204.5945980991143</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E36" t="n">
-        <v>204.5945980991143</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F36" t="n">
-        <v>204.5945980991143</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="G36" t="n">
-        <v>204.5945980991143</v>
+        <v>174.4860991253499</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>527.9820370414925</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>527.9820370414925</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>199.9564583192088</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>23.90796037760316</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>945.8639738410842</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>735.4808960230977</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>496.626357174339</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
         <v>18.91727947682168</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>945.8639738410842</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>499.2491362273716</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>499.2491362273716</v>
+        <v>156.5807699261765</v>
       </c>
       <c r="D42" t="n">
-        <v>350.3147265661203</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="E42" t="n">
-        <v>350.3147265661203</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="F42" t="n">
-        <v>350.3147265661203</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="G42" t="n">
-        <v>211.5839011487358</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="H42" t="n">
-        <v>98.21476555631516</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="N42" t="n">
-        <v>717.0830523965075</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>693.8259377144041</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="E43" t="n">
         <v>18.91727947682168</v>
@@ -7603,16 +7603,16 @@
         <v>153.4495699670924</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
         <v>3.166710156947247</v>
@@ -7649,16 +7649,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>120.7308247336138</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S44" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T44" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U44" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V44" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>68.2764642733967</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F45" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G45" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
         <v>3.166710156947247</v>
@@ -7737,40 +7737,40 @@
         <v>40.77139327069581</v>
       </c>
       <c r="N45" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="O45" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="P45" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C46" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D46" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E46" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F46" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7678942138048</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>90.78418011093548</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>50.80046600806619</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>55.62015482801871</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>94.80819302024089</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>133.9962312124631</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W46" t="n">
-        <v>158.3355078473624</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X46" t="n">
-        <v>158.3355078473624</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y46" t="n">
-        <v>158.3355078473624</v>
+        <v>13.245045875396</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8222,13 +8222,13 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
         <v>267.3975919943167</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
         <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,10 +8702,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,7 +8772,7 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
         <v>181.7179108838589</v>
@@ -8784,7 +8784,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8933,13 +8933,13 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
         <v>270.8168727171101</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
         <v>178.1382567417148</v>
@@ -9024,7 +9024,7 @@
         <v>171.9589358120561</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,10 +9249,10 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>228.4841943116421</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>373.6880842874513</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
         <v>275.3502919318278</v>
@@ -11306,10 +11306,10 @@
         <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11385,7 +11385,7 @@
         <v>180.1185623197441</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>182.180121406285</v>
@@ -11394,7 +11394,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,19 +22592,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U2" t="n">
-        <v>216.4801740798473</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
         <v>115.8665979654177</v>
@@ -22729,7 +22729,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>343.14996470164</v>
+        <v>359.8176521901039</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22872,10 +22872,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.29235532465395</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>216.8295043329304</v>
       </c>
       <c r="X6" t="n">
         <v>166.1891082416369</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="7">
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,7 +23109,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>186.3575051191342</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I10" t="n">
-        <v>145.472922565994</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
         <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23227,10 +23227,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23306,10 +23306,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>211.7617759459959</v>
@@ -23318,10 +23318,10 @@
         <v>288.1683815082943</v>
       </c>
       <c r="W11" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="13">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>380.4372586871459</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>344.8563210650246</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y14" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
         <v>105.4853354315433</v>
@@ -23592,10 +23592,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>54.53115402342591</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="16">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
         <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>220.6894778021237</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23713,10 +23713,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23735,10 +23735,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>315.8114241890584</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>337.7981976930332</v>
+        <v>353.049451855182</v>
       </c>
       <c r="F17" t="n">
         <v>362.7438733624829</v>
@@ -23747,7 +23747,7 @@
         <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6615662182428</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23929,16 +23929,16 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,13 +23984,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>17.52221036434022</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24169,10 +24169,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,10 +24206,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>131.2109657279547</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>88.79897892133644</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,10 +24303,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>77.25880082419985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,13 +24500,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24525,25 +24525,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>147.7506855521427</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>97.38737029608565</v>
       </c>
     </row>
     <row r="28">
@@ -24619,13 +24619,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>338.0479125612334</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,19 +24768,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>67.1422986804247</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>84.56733979566263</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160426</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>132.4398060348572</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
@@ -24926,7 +24926,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -25005,19 +25005,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>81.18038932886157</v>
       </c>
       <c r="G33" t="n">
-        <v>77.032300036899</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,19 +25151,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,16 +25205,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,22 +25239,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.91834797515689</v>
+        <v>47.97917063292576</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25333,7 +25333,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25363,10 +25363,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U37" t="n">
-        <v>246.4912418877956</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25457,7 +25457,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25470,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25485,13 +25485,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>23.51010635726327</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25527,10 +25527,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>156.9936447312009</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
-        <v>118.2170481604119</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4643766119907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>150.9524208921511</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>11.90480134603533</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,16 +25719,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>10.89212163271655</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>357.8590620500362</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>324.3661891039686</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,19 +25953,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G45" t="n">
-        <v>97.75964020137005</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,10 +26001,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26032,22 +26032,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>135.443495661667</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752917</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752917</v>
+        <v>355301.6422752916</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>76974.81962490579</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490578</v>
+        <v>76974.81962490581</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490578</v>
+        <v>76974.81962490582</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490581</v>
+        <v>76974.81962490577</v>
       </c>
       <c r="G2" t="n">
         <v>77709.45347827917</v>
@@ -26332,7 +26332,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26344,7 +26344,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18544.44709099309</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="C4" t="n">
-        <v>18544.44709099309</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="D4" t="n">
-        <v>18544.44709099308</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="E4" t="n">
-        <v>18544.44709099308</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="F4" t="n">
-        <v>18544.44709099309</v>
+        <v>17830.0749817395</v>
       </c>
       <c r="G4" t="n">
-        <v>18727.82287965611</v>
+        <v>18006.507495794</v>
       </c>
       <c r="H4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261926</v>
       </c>
       <c r="K4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>26289.91179915752</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>26115.21531077065</v>
+        <v>25114.1863689511</v>
       </c>
       <c r="P4" t="n">
-        <v>18544.44709099309</v>
+        <v>17830.0749817395</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9130.605215549891</v>
+        <v>9844.977324803476</v>
       </c>
       <c r="C6" t="n">
-        <v>22396.0728146328</v>
+        <v>23110.44492388638</v>
       </c>
       <c r="D6" t="n">
-        <v>22396.07281463279</v>
+        <v>23110.4449238864</v>
       </c>
       <c r="E6" t="n">
-        <v>56023.67281463279</v>
+        <v>56738.04492388642</v>
       </c>
       <c r="F6" t="n">
-        <v>56023.67281463282</v>
+        <v>56738.04492388635</v>
       </c>
       <c r="G6" t="n">
-        <v>55051.77496849117</v>
+        <v>55773.09035235328</v>
       </c>
       <c r="H6" t="n">
-        <v>13940.28961212179</v>
+        <v>14947.93319866006</v>
       </c>
       <c r="I6" t="n">
-        <v>67060.85658244684</v>
+        <v>68068.50016898513</v>
       </c>
       <c r="J6" t="n">
-        <v>56703.97267864304</v>
+        <v>57711.61626518129</v>
       </c>
       <c r="K6" t="n">
-        <v>67060.85658244684</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="L6" t="n">
-        <v>67060.85658244684</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="M6" t="n">
-        <v>67060.85658244684</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>67060.85658244684</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="O6" t="n">
-        <v>66812.22629667846</v>
+        <v>67813.25523849804</v>
       </c>
       <c r="P6" t="n">
-        <v>56023.6728146328</v>
+        <v>56738.04492388639</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N5" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L6" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
         <v>39.58387696184059</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,13 +35653,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
         <v>39.58387696184059</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
         <v>39.58387696184059</v>
@@ -35744,7 +35744,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>86.35016038962375</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="N42" t="n">
-        <v>236.4659934602711</v>
-      </c>
-      <c r="O42" t="n">
-        <v>231.0918398430068</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
         <v>39.58387696184059</v>
@@ -38026,10 +38026,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>39.58387696184059</v>
@@ -38114,7 +38114,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209954</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
     </row>
     <row r="12">
@@ -1452,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G14" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1804,22 +1806,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2041,19 +2043,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,73 +2080,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>124.9488863009592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>200.3360962888297</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>37.64451671937071</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>56.27023347204743</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,13 +2447,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>200.470795159128</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,11 +2554,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="27">
@@ -2637,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>48.48316818328725</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.2953254812187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
@@ -2852,7 +2854,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>102.7828989177425</v>
       </c>
       <c r="H30" t="n">
-        <v>27.66810444083383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,61 +3031,61 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3117,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>212.285385643442</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>241.0142888776591</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>18.73177302316008</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>64.2562736035707</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -3393,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3584,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>88.72533787923319</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>25.17733485611659</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>198.2885478252619</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>135.5402642186034</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>83.12218148371481</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3904,52 +3906,52 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>39.58387696184059</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>34.86547882798917</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>123.1178524655551</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>83.13413836268582</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>43.15042425981653</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.1878417126385</v>
+        <v>104.756466833843</v>
       </c>
       <c r="C5" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="D5" t="n">
-        <v>95.20412760976917</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="E5" t="n">
-        <v>95.20412760976917</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="F5" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>104.756466833843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O6" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>123.1178524655551</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U11" t="n">
-        <v>83.13413836268582</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V11" t="n">
-        <v>43.15042425981653</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>43.15042425981653</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G12" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E14" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G14" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y14" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N15" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>92.68647758675968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>92.68647758675968</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y20" t="n">
-        <v>761.6974622895962</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>489.9572726784918</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>315.5042433973647</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>813.1585848204618</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>813.1585848204618</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>569.7098081763618</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X21" t="n">
-        <v>569.7098081763618</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y21" t="n">
-        <v>361.9495094114078</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="22">
@@ -5944,10 +5946,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.167420504237</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>76.87389543173322</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C24" t="n">
-        <v>76.87389543173322</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D24" t="n">
-        <v>76.87389543173322</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E24" t="n">
-        <v>76.87389543173322</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>660.701031422288</v>
+        <v>284.787934186969</v>
       </c>
       <c r="V24" t="n">
-        <v>660.701031422288</v>
+        <v>284.787934186969</v>
       </c>
       <c r="W24" t="n">
-        <v>660.701031422288</v>
+        <v>284.787934186969</v>
       </c>
       <c r="X24" t="n">
-        <v>452.8495312167552</v>
+        <v>284.787934186969</v>
       </c>
       <c r="Y24" t="n">
-        <v>245.0892324518013</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6339,16 +6341,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.215552771464</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6488,16 +6490,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
         <v>19.28114311021272</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.48569440222</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C30" t="n">
-        <v>492.48569440222</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="D30" t="n">
-        <v>492.48569440222</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="E30" t="n">
-        <v>333.2482393967645</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="F30" t="n">
-        <v>186.7136814236494</v>
+        <v>237.2255213733409</v>
       </c>
       <c r="G30" t="n">
-        <v>47.98285600626494</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
         <v>20.03527576299844</v>
@@ -6543,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6646,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6895,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
@@ -6974,13 +6976,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>795.8418184905681</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="C36" t="n">
-        <v>621.3887892094411</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="D36" t="n">
-        <v>472.4543795481899</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="E36" t="n">
-        <v>313.2169245427344</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F36" t="n">
-        <v>313.2169245427344</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>174.4860991253499</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
         <v>109.5807722530562</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>380.6017161145382</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.32787816303323</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C38" t="n">
-        <v>82.32787816303323</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y38" t="n">
-        <v>325.7766548071333</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C39" t="n">
-        <v>359.1939133246643</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D39" t="n">
-        <v>359.1939133246643</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E39" t="n">
-        <v>199.9564583192088</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F39" t="n">
-        <v>199.9564583192088</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>199.9564583192088</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7266,10 +7268,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>938.6255041408215</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>736.4389094995875</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y39" t="n">
-        <v>533.6469426057913</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>156.5807699261765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>459.7246041887357</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>108.260178376266</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>68.2764642733967</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.2764642733967</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.36807964162378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C45" t="n">
-        <v>78.36807964162378</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D45" t="n">
-        <v>78.36807964162378</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E45" t="n">
-        <v>78.36807964162378</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F45" t="n">
-        <v>38.38436553875449</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>171.9589358120561</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8541,16 +8543,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,7 +9497,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O27" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10916,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5053919605859</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>228.4841943116421</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22553,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22595,16 +22597,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8867796421457</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.8176521901039</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22835,10 +22837,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>224.4233248308245</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22957,13 +22959,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23024,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>174.1545907582562</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="12">
@@ -23340,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>102.4780383352215</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>132.7973439262303</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,19 +23457,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>343.0587526406372</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G14" t="n">
-        <v>380.4372586871459</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23580,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23592,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23692,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>353.049451855182</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>362.7438733624829</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>98.47189973158609</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23929,19 +23931,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>240.3240054700484</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>169.3950043896394</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.8886669304966</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>50.77514371154891</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24184,13 +24186,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>131.2109657279547</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>88.79897892133644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>25.47058692184686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>148.0596218681135</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="27">
@@ -24525,16 +24527,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>98.96189738135151</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24579,7 +24581,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>97.38737029608565</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24728,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
@@ -24740,7 +24742,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>338.0479125612334</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>34.56061824546812</v>
       </c>
       <c r="H30" t="n">
-        <v>84.56733979566263</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9875061275656</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,7 +24973,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25005,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>81.18038932886157</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25059,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275656</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>165.8617568640524</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>138.9133074322409</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>47.97917063292576</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,7 +25298,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25472,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>23.51010635726327</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>146.5058362477212</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25643,10 +25645,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>150.9524208921511</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>11.90480134603533</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>122.6508037197627</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.8590620500362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>126.6730335290854</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>105.4853354315433</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>102.4780383352215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26001,10 +26003,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26080,16 +26082,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.235636789</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752916</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827916</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490582</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490577</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26344,16 +26346,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490579</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26439,7 +26441,7 @@
         <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>25282.26821261926</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583834</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388638</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.4449238864</v>
+        <v>23392.10990182806</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.04492388642</v>
+        <v>57019.70990182807</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388635</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235328</v>
+        <v>14106.06526851277</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866006</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898513</v>
+        <v>68068.50016898512</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518129</v>
+        <v>56521.58205899422</v>
       </c>
       <c r="K6" t="n">
-        <v>68068.50016898511</v>
+        <v>68068.50016898509</v>
       </c>
       <c r="L6" t="n">
         <v>68068.50016898511</v>
@@ -26555,13 +26557,13 @@
         <v>68068.50016898511</v>
       </c>
       <c r="N6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="O6" t="n">
-        <v>67813.25523849804</v>
+        <v>20688.62195152132</v>
       </c>
       <c r="P6" t="n">
-        <v>56738.04492388639</v>
+        <v>68068.50016898509</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,7 +36217,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9091475161414</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>86.35016038962375</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>37.98452839772582</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
